--- a/biology/Botanique/Phalaenopsis_natmataungensis/Phalaenopsis_natmataungensis.xlsx
+++ b/biology/Botanique/Phalaenopsis_natmataungensis/Phalaenopsis_natmataungensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Phalaenopsis natmataungensis est une espèce d'orchidées du genre Phalaenopsis découverte en 2010 dans un parc de Birmanie.
-Synonyme[2] :
-Doritis natmataungensis, T.Yukawa, Nob.Tanaka &amp; J.Murata (2010). (Basionyme)[3]</t>
+Synonyme :
+Doritis natmataungensis, T.Yukawa, Nob.Tanaka &amp; J.Murata (2010). (Basionyme)</t>
         </is>
       </c>
     </row>
@@ -512,9 +524,11 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce aphylle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce aphylle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">origines : Parc national de Nat Ma Taung en Birmanie (endémique)[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">origines : Parc national de Nat Ma Taung en Birmanie (endémique)
 </t>
         </is>
       </c>
